--- a/flight data.xlsx
+++ b/flight data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B83B3BF-8D7A-4470-A256-4B8B3B69710B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F789BA69-40CB-4148-9399-EEE1109E7AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1098" yWindow="1098" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -369,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -395,559 +395,559 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f ca="1">CONCATENATE(CHOOSE(RANDBETWEEN(1,5),"A","F","E","R","L"), RANDBETWEEN(100,999))</f>
-        <v>F697</v>
+        <v>A188</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(RAND()*(10)/24+6/24,"HH:MM")</f>
-        <v>12:52</v>
+        <v>07:37</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(B2+(RAND()*10/24),"HH:MM")</f>
-        <v>19:41</v>
+        <v>11:34</v>
       </c>
       <c r="D2" s="1" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,15),"A380","B737","B787","B777","A320","A350","B767","B757","W","Q","A","Z","L","L","L")</f>
-        <v>B737</v>
+        <v>A320</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A32" ca="1" si="0">CONCATENATE(CHOOSE(RANDBETWEEN(1,5),"A","F","E","R","L"), RANDBETWEEN(100,999))</f>
-        <v>L547</v>
+        <v>F305</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B32" ca="1" si="1">TEXT(RAND()*(10)/24+6/24,"HH:MM")</f>
-        <v>10:56</v>
+        <v>12:14</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C32" ca="1" si="2">TEXT(B3+(RAND()*10/24),"HH:MM")</f>
-        <v>15:20</v>
+        <v>19:28</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D32" ca="1" si="3">CHOOSE(RANDBETWEEN(1,15),"A380","B737","B787","B777","A320","A350","B767","B757","W","Q","A","Z","L","L","L")</f>
-        <v>B777</v>
+        <v>B757</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R777</v>
+        <v>F708</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11:25</v>
+        <v>12:02</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>18:18</v>
+        <v>15:53</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>L211</v>
+        <v>R696</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>09:55</v>
+        <v>08:42</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12:25</v>
+        <v>16:38</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B777</v>
+        <v>W</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F859</v>
+        <v>A678</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10:55</v>
+        <v>14:40</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11:31</v>
+        <v>23:37</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B787</v>
+        <v>A</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E202</v>
+        <v>A716</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>12:46</v>
+        <v>11:10</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>17:38</v>
+        <v>20:11</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B757</v>
+        <v>Z</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R429</v>
+        <v>E394</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13:29</v>
+        <v>14:02</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>15:05</v>
+        <v>20:31</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B767</v>
+        <v>A380</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>L233</v>
+        <v>R189</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10:48</v>
+        <v>13:15</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>16:08</v>
+        <v>23:00</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>B757</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R168</v>
+        <v>R267</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>06:09</v>
+        <v>11:56</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13:55</v>
+        <v>16:44</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B787</v>
+        <v>B767</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E874</v>
+        <v>A811</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>06:13</v>
+        <v>13:01</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>06:29</v>
+        <v>20:23</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Z</v>
+        <v>Q</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R843</v>
+        <v>A636</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10:51</v>
+        <v>15:04</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11:56</v>
+        <v>21:32</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B767</v>
+        <v>Z</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A316</v>
+        <v>R985</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>09:07</v>
+        <v>06:55</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>18:05</v>
+        <v>12:28</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B777</v>
+        <v>A380</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>L334</v>
+        <v>L174</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>06:49</v>
+        <v>10:34</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>16:42</v>
+        <v>13:27</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B757</v>
+        <v>A350</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R975</v>
+        <v>A426</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07:40</v>
+        <v>07:43</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>14:13</v>
+        <v>09:08</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Q</v>
+        <v>A320</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A358</v>
+        <v>L873</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07:00</v>
+        <v>12:52</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09:58</v>
+        <v>18:12</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L</v>
+        <v>B787</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E530</v>
+        <v>R740</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11:52</v>
+        <v>08:22</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>21:51</v>
+        <v>16:59</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B737</v>
+        <v>A350</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A848</v>
+        <v>E404</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08:18</v>
+        <v>09:02</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12:35</v>
+        <v>12:26</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B757</v>
+        <v>W</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>L545</v>
+        <v>A779</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10:38</v>
+        <v>11:34</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13:30</v>
+        <v>17:46</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L</v>
+        <v>B767</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A891</v>
+        <v>R449</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>09:06</v>
+        <v>09:28</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>17:20</v>
+        <v>16:13</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L</v>
+        <v>A380</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R560</v>
+        <v>E160</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>06:37</v>
+        <v>13:35</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>16:13</v>
+        <v>22:19</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Z</v>
+        <v>A380</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>L443</v>
+        <v>F825</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>12:53</v>
+        <v>15:08</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>22:28</v>
+        <v>00:41</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Q</v>
+        <v>B787</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F897</v>
+        <v>L578</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13:42</v>
+        <v>14:36</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20:50</v>
+        <v>19:41</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A</v>
+        <v>B757</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F855</v>
+        <v>R915</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>15:21</v>
+        <v>09:25</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>21:56</v>
+        <v>14:41</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A350</v>
+        <v>A320</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>L564</v>
+        <v>E700</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11:18</v>
+        <v>13:30</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19:20</v>
+        <v>20:56</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Z</v>
+        <v>L</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R888</v>
+        <v>E936</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>14:03</v>
+        <v>10:27</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>23:58</v>
+        <v>15:10</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A320</v>
+        <v>A350</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A506</v>
+        <v>A819</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13:47</v>
+        <v>12:07</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19:58</v>
+        <v>21:54</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B777</v>
+        <v>B787</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R878</v>
+        <v>A550</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>12:49</v>
+        <v>07:16</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19:10</v>
+        <v>16:39</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A</v>
+        <v>A350</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E490</v>
+        <v>L493</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07:41</v>
+        <v>06:56</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>17:19</v>
+        <v>11:17</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A350</v>
+        <v>B767</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E775</v>
+        <v>R138</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>09:57</v>
+        <v>08:51</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>16:45</v>
+        <v>15:22</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A320</v>
+        <v>Z</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E177</v>
+        <v>L516</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07:30</v>
+        <v>08:04</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12:38</v>
+        <v>16:30</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B787</v>
+        <v>Q</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R455</v>
+        <v>R165</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10:03</v>
+        <v>07:19</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12:25</v>
+        <v>12:33</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A320</v>
+        <v>B767</v>
       </c>
     </row>
   </sheetData>
